--- a/medicine/Enfance/Les_Saisons_de_la_mer/Les_Saisons_de_la_mer.xlsx
+++ b/medicine/Enfance/Les_Saisons_de_la_mer/Les_Saisons_de_la_mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Saisons de la mer est un récit pour adolescents de Monique Corriveau inspiré des souvenirs d'enfance d'Helena Frecker, paru en 1975. Il a été traduit en anglais en 1989.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Décembre 1912. la petite Marie-Lou McGuire vit sur l’île d’Odérin, dans la baie de Placentia à Terre-Neuve, dans un petit port de pêche sur le déclin. À la sortie de l’école, elle s’aventure seule sur les glaces du rivage, sans son chien Pierrot pour veiller sur elle, et sera rescapée par son frère David, revenu de Saint-Jean pour les Fêtes. Ainsi débute le portrait de la vie quotidienne de Mari-Lou, entre petits drames et grands émerveillements, de sa famille et du village : son père Philippe, magistrat et marchand, sa mère aimante Isabelle, son ami Tom qui rêve d’être pêcheur, Angus, le vieux pêcheur écossais.
 </t>
@@ -542,10 +556,12 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Alvine-Bélisle attribué par l'Association pour l'avancement des sciences et des techniques de la documentation (ASTED), à titre posthume, en 1976[1],[2]
-(international) « Honor List » 1978[3], de l' IBBY.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Alvine-Bélisle attribué par l'Association pour l'avancement des sciences et des techniques de la documentation (ASTED), à titre posthume, en 1976,
+(international) « Honor List » 1978, de l' IBBY.</t>
         </is>
       </c>
     </row>
@@ -573,10 +589,12 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Saisons de la mer (roman), Montréal, Fides, coll. « du Goéland », 1975 (illustrations de Louise Méthé), 154 p.  (ISBN 0-7755-0545-5)
-Seasons of the Sea, Toronto, Douglas &amp; McIntyre, 1989 (traduction et abrègement de David Homel, illustrations de Debi Perna), 96 p.[4]</t>
+Seasons of the Sea, Toronto, Douglas &amp; McIntyre, 1989 (traduction et abrègement de David Homel, illustrations de Debi Perna), 96 p.</t>
         </is>
       </c>
     </row>
